--- a/solon-projects/solon-ai/solon-ai-load-excel/src/test/resources/demo2.xlsx
+++ b/solon-projects/solon-ai/solon-ai-load-excel/src/test/resources/demo2.xlsx
@@ -27,21 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>6k</t>
   </si>
   <si>
     <t>61k</t>
   </si>
   <si>
-    <t>6k</t>
-  </si>
-  <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>97k</t>
   </si>
   <si>
     <t>98k</t>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>12k</t>
   </si>
   <si>
     <t>13k</t>
@@ -672,8 +666,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1207,7 +1204,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1220,128 +1217,127 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>